--- a/PowerData/Oval_65straight_65curve_speed.xlsx
+++ b/PowerData/Oval_65straight_65curve_speed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryantlj\Desktop\PanamaCityBeach\Verificatoin_Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bryantlj\Desktop\PanamaCityBeach\PowerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66328A99-5719-46B5-8B85-8D7754E2740B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4A9BB3-3B63-41A5-8B54-FEF3D9DC1000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2448" yWindow="1080" windowWidth="17280" windowHeight="8976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Two_minute_65_speed" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Time (s)</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>12.5 laps</t>
   </si>
 </sst>
 </file>
@@ -554,9 +557,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8074,8 +8078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8239,6 +8243,9 @@
       <c r="F6">
         <v>8.06</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
